--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -788,7 +788,7 @@
         <v>2400</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1682,84 +1682,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>inventory_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>mapping_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>goods_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>goods_type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>goods_wear</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>goods_wear_value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>is_stattrak</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>buy_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>buy_time</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>sell_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>sell_time</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>extra_income</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sell_time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>hold_days</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>total_profit</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20241226125300_0.2379</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>王蛇</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>驾驶手套</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2379</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>45652.53680555556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2520</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>45659.75816006945</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,21 +1871,6 @@
           <t>avg_profit_per_item</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>total_investment</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>remaining_amount</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>holding_count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
@@ -1875,10 +1904,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-12-30</t>
-        </is>
+      <c r="A3" s="7" t="n">
+        <v>45656</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1891,17 +1918,83 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>53</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10947</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10947</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10947</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\projects\python\PYQT\CS2_V1.0\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D6399-7145-4AB5-B622-E08C03DC8DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE43FC8-0D77-466D-8FE5-083860587F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>inventory_id</t>
   </si>
@@ -208,6 +208,22 @@
   </si>
   <si>
     <t>海豹短刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +255,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,14 +294,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -583,15 +620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,29 +638,32 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -631,31 +671,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1381</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>168</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>168</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -663,31 +706,34 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1051</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>168</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>168</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -695,31 +741,34 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1343</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>168</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>168</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -727,31 +776,34 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>168</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>168</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -759,31 +811,34 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.26740000000000003</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>146</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>45651.935416666667</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>146</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -791,31 +846,34 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2379</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2400</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>45652.536805555559</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2400</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -823,31 +881,34 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.3775</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>124</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>45652.675694444442</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>124</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -855,31 +916,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.222</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>149</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>45653.727083333331</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>149</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -887,31 +951,34 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.21909999999999999</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>126</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>45653.768750000003</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>126</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -919,31 +986,34 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.376</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>149</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>45653.79791666667</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>149</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -951,31 +1021,34 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.3387</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>126</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>45653.85</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>126</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -983,31 +1056,34 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.307</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>151</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>45653.88958333333</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>151</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1015,31 +1091,34 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.27379999999999999</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>126</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>45653.950694444437</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>126</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1047,31 +1126,34 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.2944</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>151</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>45654.094444444447</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>151</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1079,31 +1161,34 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>4520</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>45654.267361111109</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4520</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1111,31 +1196,34 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.24490000000000001</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>151</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>45654.493750000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>151</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1143,31 +1231,34 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>167</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>45654.646527777782</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>167</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1175,31 +1266,34 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.29980000000000001</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>151</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>45654.666666666657</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>151</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1207,31 +1301,34 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>167</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>45654.673611111109</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>167</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1239,31 +1336,34 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>167</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>45654.679166666669</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>167</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1271,31 +1371,34 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>167</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>45654.69027777778</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>167</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1303,31 +1406,34 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>9.11E-2</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>167</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>45654.70416666667</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>167</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1335,31 +1441,34 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>167</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>45654.70416666667</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>167</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1367,31 +1476,34 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.13789999999999999</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>167</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>45654.709027777782</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>167</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1399,31 +1511,34 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.2172</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>151</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>45654.709027777782</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>151</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1431,31 +1546,34 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.2863</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>151</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>45654.713194444441</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>151</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1463,31 +1581,34 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.1144</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>167</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>45654.714583333327</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>167</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1495,31 +1616,34 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.11169999999999999</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>167</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>45654.720833333333</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>167</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1527,28 +1651,31 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.2359</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>1550</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>45658.833299791673</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1556,24 +1683,27 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>37</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>3860</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>45660.46046101852</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0</v>
       </c>
     </row>
@@ -1585,13 +1715,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,38 +1733,41 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1640,40 +1775,43 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.2379</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>2400</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>45652.536805555559</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2520</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>45659.758160069447</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1681,40 +1819,43 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>168</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>172.35</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>45659.85634096065</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4.3499999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1722,40 +1863,43 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1051</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>168</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>172.35</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>45659.852446469908</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>7</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4.3499999999999943</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1763,40 +1907,43 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.1343</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>168</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>172.35</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>45659.846563842591</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>7</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.3499999999999943</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1804,40 +1951,43 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1381</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>168</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>45651.941666666673</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>171</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>45659.970538229158</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>8</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1845,36 +1995,39 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.26740000000000003</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>146</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>45651.935416666667</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>159.4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>45660.386596168981</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>13.400000000000009</v>
       </c>
     </row>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,6 +2022,49 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20250103182841_0.1927</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>王蛇</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>手套</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>驾驶手套</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1927</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3060</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>45660.76992590278</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -862,7 +862,7 @@
         <v>124</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
